--- a/static/xlsx/tr/Team_tr.xlsx
+++ b/static/xlsx/tr/Team_tr.xlsx
@@ -1142,7 +1142,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47" defaultRowHeight="23" customHeight="1" outlineLevelCol="3"/>
